--- a/study_guides/midterm_1_review/pipeline_2-wide-superscalar_question.xlsx
+++ b/study_guides/midterm_1_review/pipeline_2-wide-superscalar_question.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrabb\Desktop\Wonsun Ahn\cs1541\CS1541_Fall2020\study_guides\midterm_1_review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A8B7E2-3CC7-464D-9734-2E46F4B635DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EA54C3-68DE-4ED3-BAE3-9573AB85F8B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="915" windowWidth="19650" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="285" windowWidth="13650" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,9 +42,6 @@
     <t>Assume split instruction and data memory, full data forwarding, and perfect branch prediction (with both BHT and BTB).</t>
   </si>
   <si>
-    <t>Assume initially s0 is renamed to p10 and s1 is renamed to p11 and that both operands are ready.  Other operands are not ready.</t>
-  </si>
-  <si>
     <t>This is the code:</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>* All instructions have already been dispatched so there will only be EX, MEM, WB stages (no IF or ID).</t>
+  </si>
+  <si>
+    <t>Assume initially s0 is renamed to p10 and t1 is renamed to p11 and that both operands are ready.  Other operands are not ready.</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="A4" sqref="A4:Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +526,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -614,7 +614,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -644,7 +644,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -674,7 +674,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -703,7 +703,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -732,7 +732,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -761,7 +761,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -817,7 +817,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
